--- a/loaded_influencer_data/khutjo.matsoma/khutjo.matsoma_video.xlsx
+++ b/loaded_influencer_data/khutjo.matsoma/khutjo.matsoma_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,25 +506,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7465766543402618118</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3700000</v>
+        <v>3800000</v>
       </c>
       <c r="C2" t="n">
-        <v>63800</v>
+        <v>65500</v>
       </c>
       <c r="D2" t="n">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4888</v>
+        <v>5066</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.730972972972973</v>
+        <v>1.730447368421053</v>
       </c>
       <c r="I2" t="n">
-        <v>1.724324324324324</v>
+        <v>1.723684210526316</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006648648648648649</v>
+        <v>0.006763157894736842</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1321081081081081</v>
+        <v>0.1333157894736842</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7415928927299947781</t>
         </is>
@@ -567,16 +567,16 @@
         <v>2100000</v>
       </c>
       <c r="C3" t="n">
-        <v>76200</v>
+        <v>76400</v>
       </c>
       <c r="D3" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5961</v>
+        <v>5982</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -585,19 +585,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3.641190476190476</v>
+        <v>3.650904761904762</v>
       </c>
       <c r="I3" t="n">
-        <v>3.628571428571428</v>
+        <v>3.638095238095238</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01261904761904762</v>
+        <v>0.01280952380952381</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2838571428571429</v>
+        <v>0.2848571428571429</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7414807312600157446</t>
         </is>
@@ -620,7 +620,7 @@
         <v>1800000</v>
       </c>
       <c r="C4" t="n">
-        <v>60600</v>
+        <v>60800</v>
       </c>
       <c r="D4" t="n">
         <v>229</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3.379388888888889</v>
+        <v>3.3905</v>
       </c>
       <c r="I4" t="n">
-        <v>3.366666666666666</v>
+        <v>3.377777777777777</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>0.01272222222222222</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8222222222222223</v>
+        <v>0.8277777777777778</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -663,2317 +663,2362 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@khutjo.matsoma/photo/7488765992059931910</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6317</v>
+      </c>
+      <c r="C5" t="n">
+        <v>417</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>This has to be favourite Korean mask so far, it hydrates, repairs and rejuvenates your skin overnight.🥹stay tuned for the morning peel off video. I apply it at the end of my night skincare routine, 15 minutes before going to bed for it to dry completely🤍</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6.664555960107646</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.601234763337027</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.06332119677061897</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.427418078201678</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@khutjo.matsoma/video/7488448145265888517</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1439</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>74</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Not a fridge but a couch this time😭❤️
+Bought it from @UrbanFurn for R9500 excluding delivery</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9.112499999999999</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.99375</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.11875</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4625</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@khutjo.matsoma/photo/7488438493266414903</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2166</v>
+      </c>
+      <c r="C7" t="n">
+        <v>322</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>MARCH WAS SO GOOD!!🥹❤️ #marchrecap #photodump</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>15.23545706371191</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.86611265004617</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3693444136657433</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.6925207756232686</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@khutjo.matsoma/video/7488400232875674885</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C8" t="n">
+        <v>322</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>MARCH WAS SO GOOD!!🥹❤️ #marchrecap #photodump</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>17.3046670162559</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16.88515993707394</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.4195070791819612</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.7865757734661771</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@khutjo.matsoma/video/7488069657769807110</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6615</v>
+      </c>
+      <c r="C9" t="n">
+        <v>155</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>🤍</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2.35827664399093</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.343159486016629</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.01511715797430083</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.07558578987150416</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@khutjo.matsoma/video/7487313521487678775</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>274500</v>
+      </c>
+      <c r="C10" t="n">
+        <v>223</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>21</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>I’ve been using this mask for over a year now, and it’s been great for keeping my skin hydrated and soft. It helps brighten my complexion, evens out my skin tone, and gives me a healthy glow. The rice extract also has soothing properties, which help calm any irritation or redness, making it perfect for sensitive skin. I’ve noticed that it gently exfoliates, leaving my skin feeling smooth and refreshed. Plus, it has anti-aging benefits, helping to improve skin elasticity and keep my skin looking healthy and plump.🥹</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.08269581056466302</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.08123861566484517</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.001457194899817851</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.007650273224043716</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7486819253937638661</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B11" t="n">
         <v>1573</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C11" t="n">
         <v>236</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D11" t="n">
         <v>5</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>6</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Pilates outfit ft @COTTON ON 🖤</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H11" t="n">
         <v>15.32104259376987</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I11" t="n">
         <v>15.00317863954228</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.3178639542275906</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L11" t="n">
         <v>0.3814367450731087</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7485070603649649926</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B12" t="n">
         <v>12100</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C12" t="n">
         <v>375</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D12" t="n">
         <v>9</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>66</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Double cleanse with @Anua Store US for clean, refreshed skin that absorbs skincare better!
 #glassskin</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H12" t="n">
         <v>3.173553719008265</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I12" t="n">
         <v>3.099173553719008</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.0743801652892562</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L12" t="n">
         <v>0.5454545454545455</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7484972390129126711</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B13" t="n">
         <v>890800</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C13" t="n">
         <v>27100</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D13" t="n">
         <v>88</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>6606</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Achieving glass skin with the @Arencia Red Smoothie Serum 30❤️
 #glassskin #arencia #redsmoothieserum</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H13" t="n">
         <v>3.05208801077683</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I13" t="n">
         <v>3.042209250112259</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.009878760664571173</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L13" t="n">
         <v>0.7415806017063314</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7484743818072427831</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B14" t="n">
         <v>5343</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C14" t="n">
         <v>352</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D14" t="n">
         <v>10</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>18</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>I just updated my shooting setup🥹should I post it?</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H14" t="n">
         <v>6.775219913906046</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I14" t="n">
         <v>6.588059142803668</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.1871607711023769</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L14" t="n">
         <v>0.3368893879842785</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7483852135008881925</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B15" t="n">
         <v>6400</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C15" t="n">
         <v>421</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D15" t="n">
         <v>11</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>12</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Exactly what @JENNIE said!😍</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H15" t="n">
         <v>6.75</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I15" t="n">
         <v>6.578125</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.171875</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L15" t="n">
         <v>0.1875</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7483851282894146871</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B16" t="n">
         <v>4648</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C16" t="n">
         <v>219</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D16" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>love her so much!🤍@Tshegofatso</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H16" t="n">
         <v>4.75473321858864</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I16" t="n">
         <v>4.711703958691911</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.04302925989672978</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L16" t="n">
         <v>0.06454388984509467</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7483833283688549687</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B17" t="n">
         <v>229900</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C17" t="n">
         <v>12900</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D17" t="n">
         <v>46</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>1432</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>I am OBSESSED!!😍 @Anua Store US</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H17" t="n">
         <v>5.631143975641583</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I17" t="n">
         <v>5.611135276207047</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.02000869943453676</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L17" t="n">
         <v>0.6228795128316659</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7483212669873376518</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B18" t="n">
         <v>182500</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C18" t="n">
         <v>8554</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D18" t="n">
         <v>14</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>176</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Korean skincare will forever be famous🤭</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H18" t="n">
         <v>4.694794520547945</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I18" t="n">
         <v>4.687123287671232</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.007671232876712329</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L18" t="n">
         <v>0.09643835616438355</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7482854997722533125</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B19" t="n">
         <v>155100</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C19" t="n">
         <v>13500</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D19" t="n">
         <v>100</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>1942</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Peppermint tea is great for both your skin and health. It helps fight acne, reduces redness, and gives your skin a healthy glow. It also boosts circulation for better skin health. For your overall health, it aids digestion, relieves headaches, reduces stress, and boosts your immunity. 🍵🍃</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H19" t="n">
         <v>8.768536428110895</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I19" t="n">
         <v>8.704061895551257</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.06447453255963895</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L19" t="n">
         <v>1.252095422308188</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7482845970569383173</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B20" t="n">
         <v>11400</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C20" t="n">
         <v>523</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D20" t="n">
         <v>8</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>46</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Peppermint tea is great for both your skin and health. It helps fight acne, reduces redness, and gives your skin a healthy glow. It also boosts circulation for better skin health. For your overall health, it aids digestion, relieves headaches, reduces stress, and boosts your immunity. 🍵🍃</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H20" t="n">
         <v>4.657894736842105</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I20" t="n">
         <v>4.587719298245614</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.07017543859649122</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L20" t="n">
         <v>0.4035087719298246</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7482468356331736375</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B21" t="n">
         <v>25500</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C21" t="n">
         <v>1007</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D21" t="n">
         <v>17</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>222</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>My new favourite hobby🤭what’s yours??</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H21" t="n">
         <v>4.015686274509804</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I21" t="n">
         <v>3.949019607843137</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.06666666666666667</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L21" t="n">
         <v>0.8705882352941177</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7482115698257333510</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B22" t="n">
         <v>6802</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C22" t="n">
         <v>479</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D22" t="n">
         <v>4</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>46</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>My new favourite hobby🤭what’s yours??</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H22" t="n">
         <v>7.100852690385182</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I22" t="n">
         <v>7.042046456924433</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.05880623346074684</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L22" t="n">
         <v>0.6762716847985887</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7481729529661132037</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B23" t="n">
         <v>8760</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C23" t="n">
         <v>202</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D23" t="n">
         <v>10</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>27</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Flaxseed mask = hydration, glow, and clear skin ✨ Have you tried it yet?</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H23" t="n">
         <v>2.420091324200913</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I23" t="n">
         <v>2.305936073059361</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.1141552511415525</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L23" t="n">
         <v>0.3082191780821918</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7481025992262307127</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B24" t="n">
         <v>103300</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C24" t="n">
         <v>5987</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D24" t="n">
         <v>32</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>1935</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Clear skin isn’t just about what you put on your face—it’s about what you put in your body too! This green juice is packed with nutrients that keep my skin glowing and my gut happy. Would you give it a try? 🍃💦</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H24" t="n">
         <v>5.826718296224588</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I24" t="n">
         <v>5.795740561471442</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.03097773475314617</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L24" t="n">
         <v>1.873184898354308</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/photo/7480520027033079095</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B25" t="n">
         <v>9518</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C25" t="n">
         <v>204</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D25" t="n">
         <v>1</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>15</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>I’m absolutely in love with the Dr. Althea Pure Grinding Cleansing Balm! From the moment I opened the jar, I could tell this was something special—the smooth, buttery texture melts effortlessly into the skin, dissolving makeup and impurities without any harsh scrubbing. It feels so luxurious and nourishing, leaving my skin soft, hydrated, and refreshed after every use. Plus, the sleek green packaging is just as beautiful as the product itself! This has quickly become a must-have in my skincare routine, and I can’t get enough of it!💚</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H25" t="n">
         <v>2.153813826434125</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I25" t="n">
         <v>2.14330741752469</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.01050640890943476</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L25" t="n">
         <v>0.1575961336415213</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/photo/7480473551972076805</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B26" t="n">
         <v>12700</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C26" t="n">
         <v>1523</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D26" t="n">
         <v>19</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>36</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>small girl with a Big GOD😭❤️</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H26" t="n">
         <v>12.14173228346457</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I26" t="n">
         <v>11.99212598425197</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.1496062992125984</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L26" t="n">
         <v>0.2834645669291339</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7480288828192836870</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>357000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>58500</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D27" t="n">
         <v>441</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>3588</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Apartment Update🤭we have a fridge and a washing machine!!❤️</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>16.51008403361345</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I27" t="n">
         <v>16.38655462184874</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.1235294117647059</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L27" t="n">
         <v>1.005042016806723</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/photo/7480100126803954999</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B28" t="n">
         <v>10400</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C28" t="n">
         <v>610</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D28" t="n">
         <v>6</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>12</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Just a girl enjoying good vibes and great sushi! 🍸🍣</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H28" t="n">
         <v>5.923076923076923</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I28" t="n">
         <v>5.865384615384615</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.0576923076923077</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L28" t="n">
         <v>0.1153846153846154</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7480086810840829190</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B29" t="n">
         <v>12100</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C29" t="n">
         <v>360</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D29" t="n">
         <v>12</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>45</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Glass skin? Celimax says say no more with the Noni Energy Ampoule!✨
 It’s available on Amazon, link in bio</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H29" t="n">
         <v>3.074380165289256</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I29" t="n">
         <v>2.975206611570248</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.09917355371900827</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L29" t="n">
         <v>0.371900826446281</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7479722236723678470</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B30" t="n">
         <v>171600</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C30" t="n">
         <v>6599</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D30" t="n">
         <v>107</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>405</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Trying green tea for clear skin for the first time! ✨ I love home remedies because they’re fast, affordable, and all-natural. Can’t wait to see how my skin looks after this! Who else swears by it?</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H30" t="n">
         <v>3.907925407925408</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I30" t="n">
         <v>3.845571095571096</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.06235431235431236</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L30" t="n">
         <v>0.236013986013986</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/photo/7479553151503207686</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B31" t="n">
         <v>8095</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C31" t="n">
         <v>217</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D31" t="n">
         <v>2</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>15</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Trying green tea for clear skin for the first time! ✨ I love home remedies because they’re fast, affordable, and all-natural. Can’t wait to see how my skin looks after this! Who else swears by it?</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H31" t="n">
         <v>2.705373687461396</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I31" t="n">
         <v>2.680667078443484</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.02470660901791229</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L31" t="n">
         <v>0.1852995676343422</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7478356873004059922</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B32" t="n">
         <v>10200</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C32" t="n">
         <v>670</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D32" t="n">
         <v>15</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>37</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Clean my new Apartment with me🧽🫧🧼</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H32" t="n">
         <v>6.715686274509804</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I32" t="n">
         <v>6.568627450980393</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.1470588235294118</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L32" t="n">
         <v>0.3627450980392157</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7478022583837822213</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B33" t="n">
         <v>19800</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C33" t="n">
         <v>2834</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D33" t="n">
         <v>109</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>69</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>God’s grace is unmatched! Stepping into this new chapter with a heart full of gratitude. Every prayer, every tear, every sacrifice—He saw it all and made a way.🥹❤️</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H33" t="n">
         <v>14.86363636363637</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I33" t="n">
         <v>14.31313131313131</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.5505050505050505</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L33" t="n">
         <v>0.3484848484848485</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7477272314602704133</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B34" t="n">
         <v>6942</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C34" t="n">
         <v>299</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D34" t="n">
         <v>10</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>9</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Installation by @Your favourite Hairstylist🫶🏽</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H34" t="n">
         <v>4.451166810717373</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I34" t="n">
         <v>4.307116104868914</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.1440507058484586</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L34" t="n">
         <v>0.1296456352636128</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7476130186807741702</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B35" t="n">
         <v>19000</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C35" t="n">
         <v>416</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D35" t="n">
         <v>8</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>25</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Morning shed with @Medicube Global 💖</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H35" t="n">
         <v>2.231578947368421</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I35" t="n">
         <v>2.189473684210526</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.04210526315789474</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L35" t="n">
         <v>0.131578947368421</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7476058626184989958</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B36" t="n">
         <v>24900</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C36" t="n">
         <v>431</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D36" t="n">
         <v>11</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>49</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Glass skin in a bottle @Medicube Global collagen night wrapping mask🎀🧖🏽‍♀️</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H36" t="n">
         <v>1.775100401606426</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I36" t="n">
         <v>1.730923694779116</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.04417670682730924</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L36" t="n">
         <v>0.1967871485943775</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/photo/7475801320834731269</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B37" t="n">
         <v>8717</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C37" t="n">
         <v>613</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>14</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>13</v>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
         <v>7.192841573935987</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I37" t="n">
         <v>7.03223586096134</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.1606057129746472</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L37" t="n">
         <v>0.149133876333601</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7475377391569816837</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B38" t="n">
         <v>36100</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C38" t="n">
         <v>2648</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D38" t="n">
         <v>49</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>443</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Trying out @House of Hur new Moist Ampoule Blusher shade and I’m obsessed😍</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H38" t="n">
         <v>7.470914127423822</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I38" t="n">
         <v>7.335180055401662</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.1357340720221606</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L38" t="n">
         <v>1.227146814404432</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7475299181679168774</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B39" t="n">
         <v>14900</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C39" t="n">
         <v>352</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D39" t="n">
         <v>5</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>30</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>If I love something, I can’t help but brag about it, and right now, I’m absolutely obsessed with the Anua Heartleaf 70 Soothing Collagen Mask🥹💚</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H39" t="n">
         <v>2.395973154362416</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I39" t="n">
         <v>2.36241610738255</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.03355704697986577</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L39" t="n">
         <v>0.2013422818791946</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7474570306800110853</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B40" t="n">
         <v>44900</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C40" t="n">
         <v>1871</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D40" t="n">
         <v>7</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>312</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>I’ve been getting asked how to layer your skincare before applying the Anua Collagen Mask, so here’s my step-by-step guide for the best results! Follow this routine for smooth, hydrated skin!❤️</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H40" t="n">
         <v>4.182628062360802</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I40" t="n">
         <v>4.167037861915367</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.0155902004454343</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L40" t="n">
         <v>0.6948775055679287</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7474203792410496262</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B41" t="n">
         <v>6503</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C41" t="n">
         <v>232</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D41" t="n">
         <v>10</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>44</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>My daily morning skincare routine for hyperpigmentation☀️
 @Arencia @Medicube Global @dr.althea_official</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H41" t="n">
         <v>3.721359372597262</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I41" t="n">
         <v>3.567584191911426</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.1537751806858373</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L41" t="n">
         <v>0.6766107950176842</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7473947070605315333</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B42" t="n">
         <v>5590</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C42" t="n">
         <v>284</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D42" t="n">
         <v>14</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>4</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>My daily morning skincare routine for hyperpigmentation☀️
 @Arencia @Medicube Global @dr.althea_official</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H42" t="n">
         <v>5.330948121645796</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I42" t="n">
         <v>5.080500894454383</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.2504472271914133</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L42" t="n">
         <v>0.07155635062611806</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7473773865550777655</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B43" t="n">
         <v>5784</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C43" t="n">
         <v>163</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D43" t="n">
         <v>6</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>6</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>I love me a no foundation makeup look😍Should I drop my skin prep routine? Also I’m still learning how to do my own makeup so please be nice!</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H43" t="n">
         <v>2.921853388658368</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I43" t="n">
         <v>2.818118948824343</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.1037344398340249</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L43" t="n">
         <v>0.1037344398340249</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7473402906008472887</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B44" t="n">
         <v>65500</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C44" t="n">
         <v>1907</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D44" t="n">
         <v>15</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>145</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>I am obsessed with the Anua Peach 70 Niacin Brightening Collagen Mask💖
 @Anua Store US
 #anua</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H44" t="n">
         <v>2.934351145038168</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I44" t="n">
         <v>2.911450381679389</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.02290076335877863</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L44" t="n">
         <v>0.2213740458015267</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7473061178990677303</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B45" t="n">
         <v>5309</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C45" t="n">
         <v>100</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D45" t="n">
         <v>4</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>14</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>My new obsession😍
 @mixsoon
 #mixsoon #mixsooncentella #koreanskincare #glassskin #centella #centellasiatica</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H45" t="n">
         <v>1.958937653042004</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I45" t="n">
         <v>1.883593897155773</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.07534375588623093</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L45" t="n">
         <v>0.2637031456018082</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7472803643805224197</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B46" t="n">
         <v>590600</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C46" t="n">
         <v>17100</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D46" t="n">
         <v>66</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>1547</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>My new obsession😍
 @mixsoon
 #mixsoon #mixsooncentella #koreanskincare #glassskin #centella #centellasiatica</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H46" t="n">
         <v>2.906535726379953</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I46" t="n">
         <v>2.895360650186251</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.01117507619370132</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L46" t="n">
         <v>0.2619370132069083</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7472297355321101623</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B47" t="n">
         <v>11500</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C47" t="n">
         <v>297</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D47" t="n">
         <v>9</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>26</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Indulging in a soothing nighttime routine to nourish and hydrate my skin, so I wake up with that coveted glass skin glow. It’s all about the right products, self-care, and allowing my skin to rejuvenate overnight. ✨</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H47" t="n">
         <v>2.660869565217391</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I47" t="n">
         <v>2.582608695652174</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.0782608695652174</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L47" t="n">
         <v>0.2260869565217391</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7471731921366551813</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B48" t="n">
         <v>306800</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C48" t="n">
         <v>4026</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D48" t="n">
         <v>95</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>666</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Indulging in a soothing nighttime routine to nourish and hydrate my skin, so I wake up with that coveted glass skin glow. It’s all about the right products, self-care, and allowing my skin to rejuvenate overnight. ✨</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H48" t="n">
         <v>1.343220338983051</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I48" t="n">
         <v>1.3122555410691</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.03096479791395046</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L48" t="n">
         <v>0.2170795306388527</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7471280410429820166</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B49" t="n">
         <v>741400</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C49" t="n">
         <v>7985</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D49" t="n">
         <v>52</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>221</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>#LaRochePosayPartner
 Valentine’s Day is all about love, so why not start with self-love? 💖 Break up with acne and get clear, confident skin with Effaclar Duo + M. It’s time to take control of your acne journey and feel your best this season of love. Ready to glow? Share your progress and join the</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H49" t="n">
         <v>1.084030213110332</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I49" t="n">
         <v>1.077016455354734</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.007013757755597518</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L49" t="n">
         <v>0.02980847046128945</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7471195628123458822</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B50" t="n">
         <v>129000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C50" t="n">
         <v>4899</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D50" t="n">
         <v>33</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>212</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Oh I love being a woman🥹🎀</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H50" t="n">
         <v>3.823255813953488</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I50" t="n">
         <v>3.797674418604651</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.02558139534883721</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L50" t="n">
         <v>0.1643410852713178</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@khutjo.matsoma/video/7470818260414450950</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B51" t="n">
         <v>688100</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C51" t="n">
         <v>9965</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D51" t="n">
         <v>79</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>2003</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Achieving flawless, poreless glass skin with a few drops of Frankly Closer Serum ✨
 @FRANKLY_GLOBAL</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H51" t="n">
         <v>1.459671559366371</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I51" t="n">
         <v>1.448190669960762</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.01148088940560965</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L51" t="n">
         <v>0.2910914111321029</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-02-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@khutjo.matsoma/video/7470590074653117702</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>5447</v>
-      </c>
-      <c r="C46" t="n">
-        <v>153</v>
-      </c>
-      <c r="D46" t="n">
-        <v>55</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>28</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>🎉 GIVEAWAY ALERT! 🎉
-Thank y’all so much for 150K followers on instagram🥺
-Here’s how to enter:
-1️⃣ Follow me on Instagram &amp; TikTok</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>3.818615751789976</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.808885625114742</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1.009730126675234</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.5140444281255737</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@khutjo.matsoma/video/7470244671239802117</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>8504</v>
-      </c>
-      <c r="C47" t="n">
-        <v>211</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>26</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>The best in the game🤭</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>2.504703668861712</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.481185324553151</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.02351834430856068</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.3057384760112888</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@khutjo.matsoma/video/7469431669271891255</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>6215</v>
-      </c>
-      <c r="C48" t="n">
-        <v>162</v>
-      </c>
-      <c r="D48" t="n">
-        <v>5</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>13</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Mixsoon Bean Essence: The perfect blend of exfoliation and hydration in one. Smooth, glowing skin with every drop✨</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>2.687047465808528</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.606596942880129</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.08045052292839903</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.2091713596138375</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@khutjo.matsoma/video/7469154286988037381</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>6093</v>
-      </c>
-      <c r="C49" t="n">
-        <v>341</v>
-      </c>
-      <c r="D49" t="n">
-        <v>22</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>17</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>An old soul in a modern world.✨
-#oldmoney #oldmoneyaesthetic #oldmoneyoutfits</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>5.957656326932546</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5.596586246512391</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3610700804201543</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.2790086985064829</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@khutjo.matsoma/video/7468998787009187078</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>5536</v>
-      </c>
-      <c r="C50" t="n">
-        <v>131</v>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>9</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>My favourite go to glass skin product🥹💕
-@mixsoon
-Ad #mixsoon #koreanskincare #glassskin</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>2.402456647398844</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.366329479768786</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.0361271676300578</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.1625722543352601</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-02-08</t>
         </is>
       </c>
     </row>
